--- a/Preprocessing/watershed-s-gcm-raw.xlsx
+++ b/Preprocessing/watershed-s-gcm-raw.xlsx
@@ -8,15 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\GCParallel\Preprocessing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EF5E9B45-12FF-4717-B602-E428745C5CF9}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57472E60-DBB5-4119-9555-81A203863CBC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="watershed-s-gcm" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -38,7 +37,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -169,6 +168,13 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -515,10 +521,13 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -877,16 +886,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="P17" sqref="P17"/>
+    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="P5" sqref="P5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="14" width="9.140625" style="1"/>
+    <col min="2" max="14" width="3" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -930,575 +939,575 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2" s="2">
         <v>1</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2" s="2">
         <v>0.49</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2" s="2">
         <v>0.61</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E2" s="2">
         <v>0.67</v>
       </c>
-      <c r="F2" s="1">
+      <c r="F2" s="2">
         <v>0.28000000000000003</v>
       </c>
-      <c r="G2" s="1">
+      <c r="G2" s="2">
         <v>0.04</v>
       </c>
-      <c r="H2" s="1">
+      <c r="H2" s="2">
         <v>0.84</v>
       </c>
-      <c r="I2" s="1">
+      <c r="I2" s="2">
         <v>0.55000000000000004</v>
       </c>
-      <c r="J2" s="1">
+      <c r="J2" s="2">
         <v>0.34</v>
       </c>
-      <c r="K2" s="1">
+      <c r="K2" s="2">
         <v>0.76</v>
       </c>
-      <c r="L2" s="1">
+      <c r="L2" s="2">
         <v>0.48</v>
       </c>
-      <c r="M2" s="1">
+      <c r="M2" s="2">
         <v>0.51</v>
       </c>
-      <c r="N2" s="1">
+      <c r="N2" s="2">
         <v>0.63</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3" s="2">
         <v>0.49</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="2">
         <v>1</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="2">
         <v>0.01</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3" s="2">
         <v>0.73</v>
       </c>
-      <c r="F3" s="1">
+      <c r="F3" s="2">
         <v>0.49</v>
       </c>
-      <c r="G3" s="1">
+      <c r="G3" s="2">
         <v>0.64</v>
       </c>
-      <c r="H3" s="1">
+      <c r="H3" s="2">
         <v>0.39</v>
       </c>
-      <c r="I3" s="1">
+      <c r="I3" s="2">
         <v>-0.1</v>
       </c>
-      <c r="J3" s="1">
+      <c r="J3" s="2">
         <v>0.82</v>
       </c>
-      <c r="K3" s="1">
+      <c r="K3" s="2">
         <v>0.66</v>
       </c>
-      <c r="L3" s="1">
+      <c r="L3" s="2">
         <v>0.87</v>
       </c>
-      <c r="M3" s="1">
+      <c r="M3" s="2">
         <v>0.01</v>
       </c>
-      <c r="N3" s="1">
+      <c r="N3" s="2">
         <v>0.61</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4" s="2">
         <v>0.61</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="2">
         <v>0.01</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="2">
         <v>1</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4" s="2">
         <v>0.12</v>
       </c>
-      <c r="F4" s="1">
+      <c r="F4" s="2">
         <v>0.13</v>
       </c>
-      <c r="G4" s="1">
+      <c r="G4" s="2">
         <v>-0.13</v>
       </c>
-      <c r="H4" s="1">
+      <c r="H4" s="2">
         <v>0.63</v>
       </c>
-      <c r="I4" s="1">
+      <c r="I4" s="2">
         <v>0.96</v>
       </c>
-      <c r="J4" s="1">
+      <c r="J4" s="2">
         <v>-0.02</v>
       </c>
-      <c r="K4" s="1">
+      <c r="K4" s="2">
         <v>0.35</v>
       </c>
-      <c r="L4" s="1">
+      <c r="L4" s="2">
         <v>0.04</v>
       </c>
-      <c r="M4" s="1">
+      <c r="M4" s="2">
         <v>0.93</v>
       </c>
-      <c r="N4" s="1">
+      <c r="N4" s="2">
         <v>0.12</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5" s="2">
         <v>0.67</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="2">
         <v>0.73</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="2">
         <v>0.12</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5" s="2">
         <v>1</v>
       </c>
-      <c r="F5" s="1">
+      <c r="F5" s="2">
         <v>0.12</v>
       </c>
-      <c r="G5" s="1">
+      <c r="G5" s="2">
         <v>0.19</v>
       </c>
-      <c r="H5" s="1">
+      <c r="H5" s="2">
         <v>0.52</v>
       </c>
-      <c r="I5" s="1">
+      <c r="I5" s="2">
         <v>0.01</v>
       </c>
-      <c r="J5" s="1">
+      <c r="J5" s="2">
         <v>0.7</v>
       </c>
-      <c r="K5" s="1">
+      <c r="K5" s="2">
         <v>0.82</v>
       </c>
-      <c r="L5" s="1">
+      <c r="L5" s="2">
         <v>0.64</v>
       </c>
-      <c r="M5" s="1">
+      <c r="M5" s="2">
         <v>0.12</v>
       </c>
-      <c r="N5" s="1">
+      <c r="N5" s="2">
         <v>0.78</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6" s="2">
         <v>0.28000000000000003</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="2">
         <v>0.49</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6" s="2">
         <v>0.13</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6" s="2">
         <v>0.12</v>
       </c>
-      <c r="F6" s="1">
+      <c r="F6" s="2">
         <v>1</v>
       </c>
-      <c r="G6" s="1">
+      <c r="G6" s="2">
         <v>0.65</v>
       </c>
-      <c r="H6" s="1">
+      <c r="H6" s="2">
         <v>0.26</v>
       </c>
-      <c r="I6" s="1">
+      <c r="I6" s="2">
         <v>0.04</v>
       </c>
-      <c r="J6" s="1">
+      <c r="J6" s="2">
         <v>0.21</v>
       </c>
-      <c r="K6" s="1">
+      <c r="K6" s="2">
         <v>0.32</v>
       </c>
-      <c r="L6" s="1">
+      <c r="L6" s="2">
         <v>0.45</v>
       </c>
-      <c r="M6" s="1">
+      <c r="M6" s="2">
         <v>0.03</v>
       </c>
-      <c r="N6" s="1">
+      <c r="N6" s="2">
         <v>0.16</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7" s="2">
         <v>0.04</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7" s="2">
         <v>0.64</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7" s="2">
         <v>-0.13</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E7" s="2">
         <v>0.19</v>
       </c>
-      <c r="F7" s="1">
+      <c r="F7" s="2">
         <v>0.65</v>
       </c>
-      <c r="G7" s="1">
+      <c r="G7" s="2">
         <v>1</v>
       </c>
-      <c r="H7" s="1">
+      <c r="H7" s="2">
         <v>0.11</v>
       </c>
-      <c r="I7" s="1">
+      <c r="I7" s="2">
         <v>-0.16</v>
       </c>
-      <c r="J7" s="1">
+      <c r="J7" s="2">
         <v>0.55000000000000004</v>
       </c>
-      <c r="K7" s="1">
+      <c r="K7" s="2">
         <v>0.04</v>
       </c>
-      <c r="L7" s="1">
+      <c r="L7" s="2">
         <v>0.65</v>
       </c>
-      <c r="M7" s="1">
+      <c r="M7" s="2">
         <v>-0.13</v>
       </c>
-      <c r="N7" s="1">
+      <c r="N7" s="2">
         <v>0.03</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B8" s="2">
         <v>0.84</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8" s="2">
         <v>0.39</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D8" s="2">
         <v>0.63</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E8" s="2">
         <v>0.52</v>
       </c>
-      <c r="F8" s="1">
+      <c r="F8" s="2">
         <v>0.26</v>
       </c>
-      <c r="G8" s="1">
+      <c r="G8" s="2">
         <v>0.11</v>
       </c>
-      <c r="H8" s="1">
+      <c r="H8" s="2">
         <v>1</v>
       </c>
-      <c r="I8" s="1">
+      <c r="I8" s="2">
         <v>0.61</v>
       </c>
-      <c r="J8" s="1">
+      <c r="J8" s="2">
         <v>0.26</v>
       </c>
-      <c r="K8" s="1">
+      <c r="K8" s="2">
         <v>0.6</v>
       </c>
-      <c r="L8" s="1">
+      <c r="L8" s="2">
         <v>0.51</v>
       </c>
-      <c r="M8" s="1">
+      <c r="M8" s="2">
         <v>0.64</v>
       </c>
-      <c r="N8" s="1">
+      <c r="N8" s="2">
         <v>0.56999999999999995</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B9" s="2">
         <v>0.55000000000000004</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C9" s="2">
         <v>-0.1</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D9" s="2">
         <v>0.96</v>
       </c>
-      <c r="E9" s="1">
+      <c r="E9" s="2">
         <v>0.01</v>
       </c>
-      <c r="F9" s="1">
+      <c r="F9" s="2">
         <v>0.04</v>
       </c>
-      <c r="G9" s="1">
+      <c r="G9" s="2">
         <v>-0.16</v>
       </c>
-      <c r="H9" s="1">
+      <c r="H9" s="2">
         <v>0.61</v>
       </c>
-      <c r="I9" s="1">
+      <c r="I9" s="2">
         <v>1</v>
       </c>
-      <c r="J9" s="1">
+      <c r="J9" s="2">
         <v>-0.09</v>
       </c>
-      <c r="K9" s="1">
+      <c r="K9" s="2">
         <v>0.19</v>
       </c>
-      <c r="L9" s="1">
+      <c r="L9" s="2">
         <v>-0.03</v>
       </c>
-      <c r="M9" s="1">
+      <c r="M9" s="2">
         <v>0.89</v>
       </c>
-      <c r="N9" s="1">
+      <c r="N9" s="2">
         <v>0.02</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B10" s="2">
         <v>0.34</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C10" s="2">
         <v>0.82</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D10" s="2">
         <v>-0.02</v>
       </c>
-      <c r="E10" s="1">
+      <c r="E10" s="2">
         <v>0.7</v>
       </c>
-      <c r="F10" s="1">
+      <c r="F10" s="2">
         <v>0.21</v>
       </c>
-      <c r="G10" s="1">
+      <c r="G10" s="2">
         <v>0.55000000000000004</v>
       </c>
-      <c r="H10" s="1">
+      <c r="H10" s="2">
         <v>0.26</v>
       </c>
-      <c r="I10" s="1">
+      <c r="I10" s="2">
         <v>-0.09</v>
       </c>
-      <c r="J10" s="1">
+      <c r="J10" s="2">
         <v>1</v>
       </c>
-      <c r="K10" s="1">
+      <c r="K10" s="2">
         <v>0.52</v>
       </c>
-      <c r="L10" s="1">
+      <c r="L10" s="2">
         <v>0.78</v>
       </c>
-      <c r="M10" s="1">
+      <c r="M10" s="2">
         <v>0.02</v>
       </c>
-      <c r="N10" s="1">
+      <c r="N10" s="2">
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
-      <c r="B11" s="1">
+      <c r="B11" s="2">
         <v>0.76</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C11" s="2">
         <v>0.66</v>
       </c>
-      <c r="D11" s="1">
+      <c r="D11" s="2">
         <v>0.35</v>
       </c>
-      <c r="E11" s="1">
+      <c r="E11" s="2">
         <v>0.82</v>
       </c>
-      <c r="F11" s="1">
+      <c r="F11" s="2">
         <v>0.32</v>
       </c>
-      <c r="G11" s="1">
+      <c r="G11" s="2">
         <v>0.04</v>
       </c>
-      <c r="H11" s="1">
+      <c r="H11" s="2">
         <v>0.6</v>
       </c>
-      <c r="I11" s="1">
+      <c r="I11" s="2">
         <v>0.19</v>
       </c>
-      <c r="J11" s="1">
+      <c r="J11" s="2">
         <v>0.52</v>
       </c>
-      <c r="K11" s="1">
+      <c r="K11" s="2">
         <v>1</v>
       </c>
-      <c r="L11" s="1">
+      <c r="L11" s="2">
         <v>0.6</v>
       </c>
-      <c r="M11" s="1">
+      <c r="M11" s="2">
         <v>0.33</v>
       </c>
-      <c r="N11" s="1">
+      <c r="N11" s="2">
         <v>0.85</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10</v>
       </c>
-      <c r="B12" s="1">
+      <c r="B12" s="2">
         <v>0.48</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C12" s="2">
         <v>0.87</v>
       </c>
-      <c r="D12" s="1">
+      <c r="D12" s="2">
         <v>0.04</v>
       </c>
-      <c r="E12" s="1">
+      <c r="E12" s="2">
         <v>0.64</v>
       </c>
-      <c r="F12" s="1">
+      <c r="F12" s="2">
         <v>0.45</v>
       </c>
-      <c r="G12" s="1">
+      <c r="G12" s="2">
         <v>0.65</v>
       </c>
-      <c r="H12" s="1">
+      <c r="H12" s="2">
         <v>0.51</v>
       </c>
-      <c r="I12" s="1">
+      <c r="I12" s="2">
         <v>-0.03</v>
       </c>
-      <c r="J12" s="1">
+      <c r="J12" s="2">
         <v>0.78</v>
       </c>
-      <c r="K12" s="1">
+      <c r="K12" s="2">
         <v>0.6</v>
       </c>
-      <c r="L12" s="1">
+      <c r="L12" s="2">
         <v>1</v>
       </c>
-      <c r="M12" s="1">
+      <c r="M12" s="2">
         <v>0.08</v>
       </c>
-      <c r="N12" s="1">
+      <c r="N12" s="2">
         <v>0.66</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>11</v>
       </c>
-      <c r="B13" s="1">
+      <c r="B13" s="2">
         <v>0.51</v>
       </c>
-      <c r="C13" s="1">
+      <c r="C13" s="2">
         <v>0.01</v>
       </c>
-      <c r="D13" s="1">
+      <c r="D13" s="2">
         <v>0.93</v>
       </c>
-      <c r="E13" s="1">
+      <c r="E13" s="2">
         <v>0.12</v>
       </c>
-      <c r="F13" s="1">
+      <c r="F13" s="2">
         <v>0.03</v>
       </c>
-      <c r="G13" s="1">
+      <c r="G13" s="2">
         <v>-0.13</v>
       </c>
-      <c r="H13" s="1">
+      <c r="H13" s="2">
         <v>0.64</v>
       </c>
-      <c r="I13" s="1">
+      <c r="I13" s="2">
         <v>0.89</v>
       </c>
-      <c r="J13" s="1">
+      <c r="J13" s="2">
         <v>0.02</v>
       </c>
-      <c r="K13" s="1">
+      <c r="K13" s="2">
         <v>0.33</v>
       </c>
-      <c r="L13" s="1">
+      <c r="L13" s="2">
         <v>0.08</v>
       </c>
-      <c r="M13" s="1">
+      <c r="M13" s="2">
         <v>1</v>
       </c>
-      <c r="N13" s="1">
+      <c r="N13" s="2">
         <v>0.17</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>12</v>
       </c>
-      <c r="B14" s="1">
+      <c r="B14" s="2">
         <v>0.63</v>
       </c>
-      <c r="C14" s="1">
+      <c r="C14" s="2">
         <v>0.61</v>
       </c>
-      <c r="D14" s="1">
+      <c r="D14" s="2">
         <v>0.12</v>
       </c>
-      <c r="E14" s="1">
+      <c r="E14" s="2">
         <v>0.78</v>
       </c>
-      <c r="F14" s="1">
+      <c r="F14" s="2">
         <v>0.16</v>
       </c>
-      <c r="G14" s="1">
+      <c r="G14" s="2">
         <v>0.03</v>
       </c>
-      <c r="H14" s="1">
+      <c r="H14" s="2">
         <v>0.56999999999999995</v>
       </c>
-      <c r="I14" s="1">
+      <c r="I14" s="2">
         <v>0.02</v>
       </c>
-      <c r="J14" s="1">
+      <c r="J14" s="2">
         <v>0.55000000000000004</v>
       </c>
-      <c r="K14" s="1">
+      <c r="K14" s="2">
         <v>0.85</v>
       </c>
-      <c r="L14" s="1">
+      <c r="L14" s="2">
         <v>0.66</v>
       </c>
-      <c r="M14" s="1">
+      <c r="M14" s="2">
         <v>0.17</v>
       </c>
-      <c r="N14" s="1">
+      <c r="N14" s="2">
         <v>1</v>
       </c>
     </row>
@@ -1516,5 +1525,6 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>